--- a/biology/Botanique/Agaricoïde_(clade)/Agaricoïde_(clade).xlsx
+++ b/biology/Botanique/Agaricoïde_(clade)/Agaricoïde_(clade).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agarico%C3%AFde_(clade)</t>
+          <t>Agaricoïde_(clade)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adjectif agaricoïde qualifie, en mycologie, un champignon présentant une morphologie de champignon de Paris c'est-à-dire d'agaric ; plus précisément le champignon (le sporophore) a une silhouette typique avec un pied bulbeux et fin, un chapeau arrondi et des lames.
 Le clade Agaricoïde est une nouvelle division phylogénétique des Agaricales proposée depuis 2006. C'est le sixième clade de l'ordre des Agaricales. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agarico%C3%AFde_(clade)</t>
+          <t>Agaricoïde_(clade)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation du clade Agaricoïdes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Clade des Athéloïdes
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agarico%C3%AFde_(clade)</t>
+          <t>Agaricoïde_(clade)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +575,9 @@
           <t>Phylogramme du clade Agaricoïdes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Clade des Agaricoïdes
